--- a/API/cases.xlsx
+++ b/API/cases.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="426">
   <si>
     <t xml:space="preserve">dateRep</t>
   </si>
@@ -49,36 +49,24 @@
     <t xml:space="preserve">geoId</t>
   </si>
   <si>
-    <t xml:space="preserve">continentExp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Afghanistan</t>
   </si>
   <si>
     <t xml:space="preserve">AF</t>
   </si>
   <si>
-    <t xml:space="preserve">Asia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Albania</t>
   </si>
   <si>
     <t xml:space="preserve">AL</t>
   </si>
   <si>
-    <t xml:space="preserve">Europe</t>
-  </si>
-  <si>
     <t xml:space="preserve">Algeria</t>
   </si>
   <si>
     <t xml:space="preserve">DZ</t>
   </si>
   <si>
-    <t xml:space="preserve">Africa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Andorra</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t xml:space="preserve">AI</t>
   </si>
   <si>
-    <t xml:space="preserve">America</t>
-  </si>
-  <si>
     <t xml:space="preserve">Antigua and Barbuda</t>
   </si>
   <si>
@@ -128,9 +113,6 @@
   </si>
   <si>
     <t xml:space="preserve">AU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oceania</t>
   </si>
   <si>
     <t xml:space="preserve">Austria</t>
@@ -1429,13 +1411,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I210"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G53" activeCellId="0" sqref="G53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G186" activeCellId="0" sqref="G186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="44.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.25"/>
@@ -1444,7 +1426,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1469,11 +1451,8 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>44013</v>
       </c>
@@ -1493,16 +1472,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>44013</v>
       </c>
@@ -1522,16 +1498,13 @@
         <v>4</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>44013</v>
       </c>
@@ -1551,45 +1524,39 @@
         <v>7</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>44013</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>44013</v>
       </c>
@@ -1609,74 +1576,65 @@
         <v>2</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>44013</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>44013</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>44013</v>
       </c>
@@ -1696,16 +1654,13 @@
         <v>27</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>44013</v>
       </c>
@@ -1725,16 +1680,13 @@
         <v>10</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>44013</v>
       </c>
@@ -1754,16 +1706,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>44013</v>
       </c>
@@ -1783,16 +1732,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>44013</v>
       </c>
@@ -1812,16 +1758,13 @@
         <v>2</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>44013</v>
       </c>
@@ -1841,16 +1784,13 @@
         <v>7</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>44013</v>
       </c>
@@ -1870,16 +1810,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>44013</v>
       </c>
@@ -1899,16 +1836,13 @@
         <v>3</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>44013</v>
       </c>
@@ -1928,16 +1862,13 @@
         <v>64</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>44013</v>
       </c>
@@ -1957,16 +1888,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>44013</v>
       </c>
@@ -1986,16 +1914,13 @@
         <v>5</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2015,16 +1940,13 @@
         <v>2</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2044,16 +1966,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2073,16 +1992,13 @@
         <v>2</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2102,16 +2018,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2131,16 +2044,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2160,16 +2070,13 @@
         <v>52</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2189,13 +2096,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2218,16 +2122,13 @@
         <v>2</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2247,16 +2148,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2276,13 +2174,10 @@
         <v>1280</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2305,16 +2200,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2334,16 +2226,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2363,16 +2252,13 @@
         <v>7</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2392,103 +2278,91 @@
         <v>0</v>
       </c>
       <c r="G33" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H36" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="I33" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
-        <v>44013</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
-        <v>44013</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
-        <v>44013</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2508,16 +2382,13 @@
         <v>25</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2537,16 +2408,13 @@
         <v>3</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2566,16 +2434,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2595,16 +2460,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2624,16 +2486,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2653,16 +2512,13 @@
         <v>113</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2682,16 +2538,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2711,16 +2564,13 @@
         <v>111</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2740,16 +2590,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2769,13 +2616,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,13 +2642,10 @@
         <v>1</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2827,16 +2668,13 @@
         <v>2</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2856,16 +2694,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2885,16 +2720,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2914,16 +2746,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2943,16 +2772,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>44013</v>
       </c>
@@ -2972,16 +2798,13 @@
         <v>1</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3001,16 +2824,13 @@
         <v>2</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3030,16 +2850,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3059,16 +2876,13 @@
         <v>1</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3088,16 +2902,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3117,16 +2928,13 @@
         <v>14</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3146,16 +2954,13 @@
         <v>25</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3175,16 +2980,13 @@
         <v>81</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3204,16 +3006,13 @@
         <v>10</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3233,16 +3032,13 @@
         <v>0</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3262,16 +3058,13 @@
         <v>0</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3291,16 +3084,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3320,16 +3110,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3349,13 +3136,10 @@
         <v>0</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3378,16 +3162,13 @@
         <v>0</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3407,16 +3188,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3436,16 +3214,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3465,16 +3240,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3494,132 +3266,117 @@
         <v>30</v>
       </c>
       <c r="G71" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="H71" s="0" t="s">
+      <c r="H74" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="I71" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="n">
-        <v>44013</v>
-      </c>
-      <c r="B72" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D72" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E72" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="0" t="s">
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="H72" s="0" t="s">
+      <c r="H75" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="I72" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
-        <v>44013</v>
-      </c>
-      <c r="B73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E73" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
-        <v>44013</v>
-      </c>
-      <c r="B74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D74" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
-        <v>44013</v>
-      </c>
-      <c r="B75" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C75" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D75" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E75" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3639,16 +3396,13 @@
         <v>12</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3668,16 +3422,13 @@
         <v>0</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3697,16 +3448,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3726,16 +3474,13 @@
         <v>1</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3755,16 +3500,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3784,16 +3526,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3813,16 +3552,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3842,16 +3578,13 @@
         <v>27</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3871,16 +3604,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3900,16 +3630,13 @@
         <v>2</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="I85" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3929,16 +3656,13 @@
         <v>3</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="I86" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3958,16 +3682,13 @@
         <v>0</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
         <v>44013</v>
       </c>
@@ -3987,13 +3708,10 @@
         <v>0</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="I88" s="0" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4016,16 +3734,13 @@
         <v>0</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="I89" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4045,16 +3760,13 @@
         <v>12</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="I90" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4074,16 +3786,13 @@
         <v>0</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I91" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4103,16 +3812,13 @@
         <v>0</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4132,16 +3838,13 @@
         <v>507</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I93" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4161,16 +3864,13 @@
         <v>71</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="I94" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4190,16 +3890,13 @@
         <v>147</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="I95" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4219,16 +3916,13 @@
         <v>104</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="I96" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4248,13 +3942,10 @@
         <v>1</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="I97" s="0" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4277,16 +3968,13 @@
         <v>0</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="I98" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4306,16 +3994,13 @@
         <v>1</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="I99" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4335,16 +4020,13 @@
         <v>23</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="I100" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4364,16 +4046,13 @@
         <v>0</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="I101" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4393,16 +4072,13 @@
         <v>2</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="I102" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4422,16 +4098,13 @@
         <v>0</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="I103" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4451,16 +4124,13 @@
         <v>0</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="I104" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4480,16 +4150,13 @@
         <v>0</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="I105" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4509,16 +4176,13 @@
         <v>4</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="I106" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4538,16 +4202,13 @@
         <v>2</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="I107" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4567,16 +4228,13 @@
         <v>4</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="I108" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4596,16 +4254,13 @@
         <v>5</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="I109" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4625,16 +4280,13 @@
         <v>0</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="I110" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4654,16 +4306,13 @@
         <v>0</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="I111" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4683,16 +4332,13 @@
         <v>0</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="I112" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4712,16 +4358,13 @@
         <v>0</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="I113" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4741,16 +4384,13 @@
         <v>0</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="I114" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4770,16 +4410,13 @@
         <v>3</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="I115" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4799,16 +4436,13 @@
         <v>0</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="I116" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4828,16 +4462,13 @@
         <v>0</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="I117" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4857,16 +4488,13 @@
         <v>0</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="I118" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4886,16 +4514,13 @@
         <v>0</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="I119" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4915,16 +4540,13 @@
         <v>2</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="I120" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4944,16 +4566,13 @@
         <v>0</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="I121" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="n">
         <v>44013</v>
       </c>
@@ -4973,16 +4592,13 @@
         <v>1</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="I122" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5002,103 +4618,91 @@
         <v>1</v>
       </c>
       <c r="G123" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H123" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="H124" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="H125" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="H123" s="0" t="s">
+      <c r="H126" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="I123" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="n">
-        <v>44013</v>
-      </c>
-      <c r="B124" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C124" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D124" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E124" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F124" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G124" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="H124" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="I124" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="n">
-        <v>44013</v>
-      </c>
-      <c r="B125" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C125" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D125" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E125" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F125" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G125" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="H125" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="I125" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="n">
-        <v>44013</v>
-      </c>
-      <c r="B126" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C126" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D126" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E126" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G126" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="H126" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="I126" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5118,16 +4722,13 @@
         <v>648</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="I127" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5147,16 +4748,13 @@
         <v>9</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="I128" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5176,16 +4774,13 @@
         <v>0</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="I129" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5205,16 +4800,13 @@
         <v>0</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="I130" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5234,16 +4826,13 @@
         <v>1</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="I131" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5263,16 +4852,13 @@
         <v>0</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="I132" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5292,16 +4878,13 @@
         <v>3</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="I133" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5321,16 +4904,13 @@
         <v>0</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="I134" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5350,16 +4930,13 @@
         <v>0</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="I135" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5379,16 +4956,13 @@
         <v>0</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="I136" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5408,16 +4982,13 @@
         <v>0</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="I137" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5437,16 +5008,13 @@
         <v>2</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="I138" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5466,16 +5034,13 @@
         <v>0</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="I139" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5495,16 +5060,13 @@
         <v>0</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="I140" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5524,16 +5086,13 @@
         <v>9</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="I141" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5553,16 +5112,13 @@
         <v>0</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="I142" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5582,16 +5138,13 @@
         <v>17</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="I143" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5611,16 +5164,13 @@
         <v>4</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="I144" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5640,16 +5190,13 @@
         <v>0</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="I145" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5669,16 +5216,13 @@
         <v>1</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="I146" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5698,16 +5242,13 @@
         <v>7</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="I147" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5727,16 +5268,13 @@
         <v>91</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="I148" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5756,16 +5294,13 @@
         <v>1</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I149" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5785,16 +5320,13 @@
         <v>11</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="I150" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5814,16 +5346,13 @@
         <v>0</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="I151" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5843,16 +5372,13 @@
         <v>1</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="I152" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5872,16 +5398,13 @@
         <v>173</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="I153" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5901,16 +5424,13 @@
         <v>11</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="I154" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5930,16 +5450,13 @@
         <v>19</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="I155" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5959,16 +5476,13 @@
         <v>8</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="I156" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="n">
         <v>44013</v>
       </c>
@@ -5988,16 +5502,13 @@
         <v>0</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="I157" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6017,16 +5528,13 @@
         <v>0</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="I158" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6046,16 +5554,13 @@
         <v>17</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="I159" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6075,16 +5580,13 @@
         <v>154</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="I160" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6104,16 +5606,13 @@
         <v>0</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="I161" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6133,16 +5632,13 @@
         <v>0</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="I162" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6162,13 +5658,10 @@
         <v>0</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="I163" s="0" t="s">
-        <v>24</v>
+        <v>331</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6191,16 +5684,13 @@
         <v>0</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="I164" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6220,16 +5710,13 @@
         <v>0</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="I165" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6249,16 +5736,13 @@
         <v>0</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="I166" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6278,16 +5762,13 @@
         <v>50</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="I167" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6307,16 +5788,13 @@
         <v>4</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="I168" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6336,16 +5814,13 @@
         <v>3</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="I169" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6365,16 +5840,13 @@
         <v>0</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="I170" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6394,16 +5866,13 @@
         <v>0</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="I171" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6423,16 +5892,13 @@
         <v>0</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="I172" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6452,16 +5918,13 @@
         <v>0</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="I173" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6481,16 +5944,13 @@
         <v>0</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="I174" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6510,16 +5970,13 @@
         <v>0</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="I175" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6539,16 +5996,13 @@
         <v>0</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="I176" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6568,16 +6022,13 @@
         <v>128</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="I177" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6597,16 +6048,13 @@
         <v>0</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="I178" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6626,16 +6074,13 @@
         <v>0</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="I179" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6655,16 +6100,13 @@
         <v>8</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="I180" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6684,16 +6126,13 @@
         <v>0</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="I181" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6713,16 +6152,13 @@
         <v>0</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="I182" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6742,16 +6178,13 @@
         <v>0</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="I183" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6771,16 +6204,13 @@
         <v>23</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="I184" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6800,16 +6230,13 @@
         <v>2</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="I185" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6829,16 +6256,13 @@
         <v>0</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="I186" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6858,16 +6282,13 @@
         <v>0</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="I187" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6887,16 +6308,13 @@
         <v>0</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="I188" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6916,16 +6334,13 @@
         <v>0</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="I189" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6945,16 +6360,13 @@
         <v>0</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="I190" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="n">
         <v>44013</v>
       </c>
@@ -6974,16 +6386,13 @@
         <v>0</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="I191" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="n">
         <v>44013</v>
       </c>
@@ -7003,16 +6412,13 @@
         <v>0</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="I192" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="n">
         <v>44013</v>
       </c>
@@ -7032,16 +6438,13 @@
         <v>0</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="I193" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="n">
         <v>44013</v>
       </c>
@@ -7061,16 +6464,13 @@
         <v>16</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="I194" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="n">
         <v>44013</v>
       </c>
@@ -7090,16 +6490,13 @@
         <v>1</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="I195" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="n">
         <v>44013</v>
       </c>
@@ -7119,16 +6516,13 @@
         <v>0</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="I196" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="n">
         <v>44013</v>
       </c>
@@ -7148,16 +6542,13 @@
         <v>26</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="I197" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="n">
         <v>44013</v>
       </c>
@@ -7177,16 +6568,13 @@
         <v>1</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="I198" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="n">
         <v>44013</v>
       </c>
@@ -7206,16 +6594,13 @@
         <v>155</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="I199" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="n">
         <v>44013</v>
       </c>
@@ -7235,16 +6620,13 @@
         <v>0</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="I200" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="n">
         <v>44013</v>
       </c>
@@ -7264,16 +6646,13 @@
         <v>1270</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="I201" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="n">
         <v>44013</v>
       </c>
@@ -7293,16 +6672,13 @@
         <v>0</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="I202" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="n">
         <v>44013</v>
       </c>
@@ -7322,16 +6698,13 @@
         <v>0</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="I203" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="n">
         <v>44013</v>
       </c>
@@ -7351,16 +6724,13 @@
         <v>2</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="I204" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="n">
         <v>44013</v>
       </c>
@@ -7380,16 +6750,13 @@
         <v>3</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="I205" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="n">
         <v>44013</v>
       </c>
@@ -7409,16 +6776,13 @@
         <v>0</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="I206" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="n">
         <v>44013</v>
       </c>
@@ -7438,16 +6802,13 @@
         <v>0</v>
       </c>
       <c r="G207" s="0" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="I207" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="n">
         <v>44013</v>
       </c>
@@ -7467,16 +6828,13 @@
         <v>8</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="I208" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="n">
         <v>44013</v>
       </c>
@@ -7496,16 +6854,13 @@
         <v>2</v>
       </c>
       <c r="G209" s="0" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="I209" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="n">
         <v>44013</v>
       </c>
@@ -7525,13 +6880,10 @@
         <v>0</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="I210" s="0" t="s">
-        <v>17</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
